--- a/data/cultural_objects_mnn.xlsx
+++ b/data/cultural_objects_mnn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="999">
   <si>
     <t>id</t>
   </si>
@@ -3181,34 +3181,214 @@
     <t>Керамическое панно «Юность»</t>
   </si>
   <si>
+    <t>1,2,8,9,25</t>
+  </si>
+  <si>
+    <t>1,2,8,13</t>
+  </si>
+  <si>
+    <t>1,2,8,9,10</t>
+  </si>
+  <si>
     <t>1,2,8</t>
   </si>
   <si>
     <t>24,27,28</t>
   </si>
   <si>
+    <t>3,4,5,25</t>
+  </si>
+  <si>
     <t>3,4,5</t>
   </si>
   <si>
+    <t>1,3,4,5</t>
+  </si>
+  <si>
+    <t>3,4,5,12</t>
+  </si>
+  <si>
+    <t>3,4,5,10,13,18</t>
+  </si>
+  <si>
+    <t>3,4,5,11,13</t>
+  </si>
+  <si>
+    <t>3,4,5,9</t>
+  </si>
+  <si>
     <t>2,6,7,8</t>
   </si>
   <si>
+    <t>3,4,9</t>
+  </si>
+  <si>
+    <t>3,9,10,11,25</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
+    <t>1,3,9,18</t>
+  </si>
+  <si>
+    <t>3,9</t>
+  </si>
+  <si>
     <t>10,11,12,13,14</t>
   </si>
   <si>
+    <t>9,10,11,12,13,14</t>
+  </si>
+  <si>
+    <t>1,6,10,11,12,13,14</t>
+  </si>
+  <si>
+    <t>9,10,11,12,13,14,25</t>
+  </si>
+  <si>
+    <t>3,9,10,11,12,13,14</t>
+  </si>
+  <si>
+    <t>10,11,12,13,14,19</t>
+  </si>
+  <si>
+    <t>1,10,11,12,13,14,19</t>
+  </si>
+  <si>
+    <t>10,11,12,13,14,25</t>
+  </si>
+  <si>
+    <t>10,11,12,13,14,15,18,21</t>
+  </si>
+  <si>
+    <t>3,7,10,11,12,13,14,23</t>
+  </si>
+  <si>
+    <t>1,10,19,20</t>
+  </si>
+  <si>
+    <t>15,16,17,18</t>
+  </si>
+  <si>
+    <t>11,19,20</t>
+  </si>
+  <si>
     <t>19,20</t>
   </si>
   <si>
-    <t>15,16,17,18</t>
+    <t>13,18,19,20</t>
+  </si>
+  <si>
+    <t>10,13,18,21,22,23,24,28</t>
+  </si>
+  <si>
+    <t>10,13,21,22,23,24,28</t>
+  </si>
+  <si>
+    <t>11,21,22,23,24,28</t>
+  </si>
+  <si>
+    <t>3,24,27,28</t>
+  </si>
+  <si>
+    <t>10,11,12,13,14,15</t>
+  </si>
+  <si>
+    <t>1,10,11,12,13,14</t>
+  </si>
+  <si>
+    <t>25,26</t>
+  </si>
+  <si>
+    <t>21,24,27,28</t>
+  </si>
+  <si>
+    <t>7,10,11,12,13,14,25</t>
+  </si>
+  <si>
+    <t>10,13,21,22,23,24,25,28</t>
+  </si>
+  <si>
+    <t>3,4,5,19,20</t>
+  </si>
+  <si>
+    <t>10,21,22,23,24,28</t>
+  </si>
+  <si>
+    <t>3,4,5,13</t>
+  </si>
+  <si>
+    <t>2,6,7,8,9</t>
+  </si>
+  <si>
+    <t>13,19,20</t>
+  </si>
+  <si>
+    <t>13,21,22,23,24,28</t>
+  </si>
+  <si>
+    <t>11,19,20,24,28</t>
+  </si>
+  <si>
+    <t>9,18,19,20</t>
+  </si>
+  <si>
+    <t>9,10,19,20</t>
+  </si>
+  <si>
+    <t>13,15,18,19,20</t>
+  </si>
+  <si>
+    <t>10,11,12,13,14,24,28</t>
+  </si>
+  <si>
+    <t>15,19,20</t>
+  </si>
+  <si>
+    <t>2,6,7,8,13</t>
+  </si>
+  <si>
+    <t>3,10,11,12,13,14</t>
+  </si>
+  <si>
+    <t>9,19,20</t>
+  </si>
+  <si>
+    <t>5,10,13,15,16,17,18</t>
+  </si>
+  <si>
+    <t>10,15,16,17,18</t>
   </si>
   <si>
     <t>21,22,23,24,28</t>
   </si>
   <si>
-    <t>25,26</t>
+    <t>3,4,5,23</t>
+  </si>
+  <si>
+    <t>12,13,15,16,17,18,20</t>
+  </si>
+  <si>
+    <t>13,15,16,17,18</t>
+  </si>
+  <si>
+    <t>15,16,17,18,20</t>
+  </si>
+  <si>
+    <t>13,15,16,17,18,19</t>
+  </si>
+  <si>
+    <t>15,16,17,18,21</t>
+  </si>
+  <si>
+    <t>9,10,15,16,17,18</t>
+  </si>
+  <si>
+    <t>10,13,15,16,17,18</t>
+  </si>
+  <si>
+    <t>3,13,15,16,17,18</t>
   </si>
   <si>
     <t>https://nn-grad.ru/audiogidy/</t>
@@ -3654,7 +3834,7 @@
         <v>671</v>
       </c>
       <c r="F3" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3677,7 +3857,7 @@
         <v>672</v>
       </c>
       <c r="F4" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3700,7 +3880,7 @@
         <v>671</v>
       </c>
       <c r="F5" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3723,7 +3903,7 @@
         <v>673</v>
       </c>
       <c r="F6" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -3746,7 +3926,7 @@
         <v>674</v>
       </c>
       <c r="F7" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3769,7 +3949,7 @@
         <v>675</v>
       </c>
       <c r="F8" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -3792,7 +3972,7 @@
         <v>676</v>
       </c>
       <c r="F9" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3815,7 +3995,7 @@
         <v>677</v>
       </c>
       <c r="F10" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3838,7 +4018,7 @@
         <v>678</v>
       </c>
       <c r="F11" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -3861,7 +4041,7 @@
         <v>679</v>
       </c>
       <c r="F12" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -3884,7 +4064,7 @@
         <v>680</v>
       </c>
       <c r="F13" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -3907,7 +4087,7 @@
         <v>681</v>
       </c>
       <c r="F14" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -3930,7 +4110,7 @@
         <v>682</v>
       </c>
       <c r="F15" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -3953,7 +4133,7 @@
         <v>683</v>
       </c>
       <c r="F16" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -3976,7 +4156,7 @@
         <v>684</v>
       </c>
       <c r="F17" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -3999,7 +4179,7 @@
         <v>685</v>
       </c>
       <c r="F18" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -4022,7 +4202,7 @@
         <v>686</v>
       </c>
       <c r="F19" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4045,7 +4225,7 @@
         <v>687</v>
       </c>
       <c r="F20" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -4068,7 +4248,7 @@
         <v>688</v>
       </c>
       <c r="F21" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -4091,7 +4271,7 @@
         <v>689</v>
       </c>
       <c r="F22" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -4114,7 +4294,7 @@
         <v>690</v>
       </c>
       <c r="F23" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -4137,7 +4317,7 @@
         <v>691</v>
       </c>
       <c r="F24" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -4160,7 +4340,7 @@
         <v>692</v>
       </c>
       <c r="F25" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -4183,7 +4363,7 @@
         <v>693</v>
       </c>
       <c r="F26" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -4206,7 +4386,7 @@
         <v>694</v>
       </c>
       <c r="F27" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -4229,7 +4409,7 @@
         <v>695</v>
       </c>
       <c r="F28" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -4252,7 +4432,7 @@
         <v>696</v>
       </c>
       <c r="F29" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -4275,7 +4455,7 @@
         <v>697</v>
       </c>
       <c r="F30" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -4298,7 +4478,7 @@
         <v>698</v>
       </c>
       <c r="F31" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -4321,13 +4501,13 @@
         <v>699</v>
       </c>
       <c r="F32" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="G32">
         <v>3</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>938</v>
+        <v>998</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -4347,13 +4527,13 @@
         <v>700</v>
       </c>
       <c r="F33" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>938</v>
+        <v>998</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -4373,7 +4553,7 @@
         <v>701</v>
       </c>
       <c r="F34" t="s">
-        <v>932</v>
+        <v>941</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -4396,7 +4576,7 @@
         <v>702</v>
       </c>
       <c r="F35" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -4419,7 +4599,7 @@
         <v>703</v>
       </c>
       <c r="F36" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -4442,7 +4622,7 @@
         <v>704</v>
       </c>
       <c r="F37" t="s">
-        <v>932</v>
+        <v>942</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -4465,7 +4645,7 @@
         <v>705</v>
       </c>
       <c r="F38" t="s">
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -4488,7 +4668,7 @@
         <v>706</v>
       </c>
       <c r="F39" t="s">
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -4511,7 +4691,7 @@
         <v>707</v>
       </c>
       <c r="F40" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -4534,13 +4714,13 @@
         <v>708</v>
       </c>
       <c r="F41" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="G41">
         <v>3</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>938</v>
+        <v>998</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -4560,7 +4740,7 @@
         <v>709</v>
       </c>
       <c r="F42" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G42">
         <v>10</v>
@@ -4583,7 +4763,7 @@
         <v>710</v>
       </c>
       <c r="F43" t="s">
-        <v>932</v>
+        <v>945</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -4606,13 +4786,13 @@
         <v>711</v>
       </c>
       <c r="F44" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>938</v>
+        <v>998</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -4632,7 +4812,7 @@
         <v>712</v>
       </c>
       <c r="F45" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -4655,7 +4835,7 @@
         <v>713</v>
       </c>
       <c r="F46" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
       <c r="G46">
         <v>5</v>
@@ -4678,7 +4858,7 @@
         <v>714</v>
       </c>
       <c r="F47" t="s">
-        <v>933</v>
+        <v>948</v>
       </c>
       <c r="G47">
         <v>5</v>
@@ -4701,7 +4881,7 @@
         <v>715</v>
       </c>
       <c r="F48" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G48">
         <v>5</v>
@@ -4724,7 +4904,7 @@
         <v>716</v>
       </c>
       <c r="F49" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -4747,7 +4927,7 @@
         <v>717</v>
       </c>
       <c r="F50" t="s">
-        <v>933</v>
+        <v>949</v>
       </c>
       <c r="G50">
         <v>5</v>
@@ -4770,7 +4950,7 @@
         <v>718</v>
       </c>
       <c r="F51" t="s">
-        <v>933</v>
+        <v>950</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -4793,7 +4973,7 @@
         <v>719</v>
       </c>
       <c r="F52" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -4816,7 +4996,7 @@
         <v>720</v>
       </c>
       <c r="F53" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -4839,7 +5019,7 @@
         <v>721</v>
       </c>
       <c r="F54" t="s">
-        <v>933</v>
+        <v>951</v>
       </c>
       <c r="G54">
         <v>5</v>
@@ -4862,7 +5042,7 @@
         <v>722</v>
       </c>
       <c r="F55" t="s">
-        <v>933</v>
+        <v>952</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -4885,7 +5065,7 @@
         <v>723</v>
       </c>
       <c r="F56" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G56">
         <v>5</v>
@@ -4908,13 +5088,13 @@
         <v>724</v>
       </c>
       <c r="F57" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="G57">
         <v>3</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>938</v>
+        <v>998</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4934,7 +5114,7 @@
         <v>725</v>
       </c>
       <c r="F58" t="s">
-        <v>933</v>
+        <v>953</v>
       </c>
       <c r="G58">
         <v>5</v>
@@ -4957,7 +5137,7 @@
         <v>726</v>
       </c>
       <c r="F59" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G59">
         <v>5</v>
@@ -4980,7 +5160,7 @@
         <v>727</v>
       </c>
       <c r="F60" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G60">
         <v>10</v>
@@ -5003,7 +5183,7 @@
         <v>728</v>
       </c>
       <c r="F61" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G61">
         <v>5</v>
@@ -5026,7 +5206,7 @@
         <v>729</v>
       </c>
       <c r="F62" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G62">
         <v>5</v>
@@ -5049,7 +5229,7 @@
         <v>730</v>
       </c>
       <c r="F63" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G63">
         <v>5</v>
@@ -5072,7 +5252,7 @@
         <v>731</v>
       </c>
       <c r="F64" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G64">
         <v>5</v>
@@ -5095,7 +5275,7 @@
         <v>732</v>
       </c>
       <c r="F65" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G65">
         <v>5</v>
@@ -5118,7 +5298,7 @@
         <v>733</v>
       </c>
       <c r="F66" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
       <c r="G66">
         <v>5</v>
@@ -5141,7 +5321,7 @@
         <v>734</v>
       </c>
       <c r="F67" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G67">
         <v>5</v>
@@ -5164,7 +5344,7 @@
         <v>735</v>
       </c>
       <c r="F68" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G68">
         <v>5</v>
@@ -5187,7 +5367,7 @@
         <v>736</v>
       </c>
       <c r="F69" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G69">
         <v>5</v>
@@ -5210,7 +5390,7 @@
         <v>737</v>
       </c>
       <c r="F70" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G70">
         <v>5</v>
@@ -5233,7 +5413,7 @@
         <v>738</v>
       </c>
       <c r="F71" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
       <c r="G71">
         <v>5</v>
@@ -5256,7 +5436,7 @@
         <v>739</v>
       </c>
       <c r="F72" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G72">
         <v>5</v>
@@ -5279,7 +5459,7 @@
         <v>740</v>
       </c>
       <c r="F73" t="s">
-        <v>933</v>
+        <v>951</v>
       </c>
       <c r="G73">
         <v>5</v>
@@ -5302,7 +5482,7 @@
         <v>741</v>
       </c>
       <c r="F74" t="s">
-        <v>933</v>
+        <v>955</v>
       </c>
       <c r="G74">
         <v>5</v>
@@ -5325,7 +5505,7 @@
         <v>742</v>
       </c>
       <c r="F75" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
       <c r="G75">
         <v>5</v>
@@ -5348,7 +5528,7 @@
         <v>743</v>
       </c>
       <c r="F76" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -5371,7 +5551,7 @@
         <v>744</v>
       </c>
       <c r="F77" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G77">
         <v>5</v>
@@ -5394,7 +5574,7 @@
         <v>745</v>
       </c>
       <c r="F78" t="s">
-        <v>933</v>
+        <v>951</v>
       </c>
       <c r="G78">
         <v>5</v>
@@ -5417,7 +5597,7 @@
         <v>746</v>
       </c>
       <c r="F79" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G79">
         <v>5</v>
@@ -5440,7 +5620,7 @@
         <v>747</v>
       </c>
       <c r="F80" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G80">
         <v>5</v>
@@ -5463,7 +5643,7 @@
         <v>748</v>
       </c>
       <c r="F81" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G81">
         <v>5</v>
@@ -5486,7 +5666,7 @@
         <v>749</v>
       </c>
       <c r="F82" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G82">
         <v>5</v>
@@ -5509,7 +5689,7 @@
         <v>750</v>
       </c>
       <c r="F83" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G83">
         <v>5</v>
@@ -5532,7 +5712,7 @@
         <v>751</v>
       </c>
       <c r="F84" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G84">
         <v>5</v>
@@ -5555,7 +5735,7 @@
         <v>752</v>
       </c>
       <c r="F85" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G85">
         <v>10</v>
@@ -5578,7 +5758,7 @@
         <v>753</v>
       </c>
       <c r="F86" t="s">
-        <v>934</v>
+        <v>956</v>
       </c>
       <c r="G86">
         <v>7</v>
@@ -5601,7 +5781,7 @@
         <v>754</v>
       </c>
       <c r="F87" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G87">
         <v>10</v>
@@ -5624,7 +5804,7 @@
         <v>755</v>
       </c>
       <c r="F88" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="G88">
         <v>6</v>
@@ -5647,7 +5827,7 @@
         <v>756</v>
       </c>
       <c r="F89" t="s">
-        <v>934</v>
+        <v>958</v>
       </c>
       <c r="G89">
         <v>7</v>
@@ -5670,7 +5850,7 @@
         <v>757</v>
       </c>
       <c r="F90" t="s">
-        <v>934</v>
+        <v>959</v>
       </c>
       <c r="G90">
         <v>7</v>
@@ -5693,7 +5873,7 @@
         <v>758</v>
       </c>
       <c r="F91" t="s">
-        <v>934</v>
+        <v>960</v>
       </c>
       <c r="G91">
         <v>7</v>
@@ -5716,7 +5896,7 @@
         <v>759</v>
       </c>
       <c r="F92" t="s">
-        <v>934</v>
+        <v>959</v>
       </c>
       <c r="G92">
         <v>7</v>
@@ -5739,7 +5919,7 @@
         <v>760</v>
       </c>
       <c r="F93" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G93">
         <v>10</v>
@@ -5762,7 +5942,7 @@
         <v>761</v>
       </c>
       <c r="F94" t="s">
-        <v>936</v>
+        <v>961</v>
       </c>
       <c r="G94">
         <v>8</v>
@@ -5785,7 +5965,7 @@
         <v>762</v>
       </c>
       <c r="F95" t="s">
-        <v>936</v>
+        <v>962</v>
       </c>
       <c r="G95">
         <v>8</v>
@@ -5808,7 +5988,7 @@
         <v>763</v>
       </c>
       <c r="F96" t="s">
-        <v>936</v>
+        <v>963</v>
       </c>
       <c r="G96">
         <v>8</v>
@@ -5831,7 +6011,7 @@
         <v>764</v>
       </c>
       <c r="F97" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G97">
         <v>10</v>
@@ -5854,7 +6034,7 @@
         <v>765</v>
       </c>
       <c r="F98" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G98">
         <v>10</v>
@@ -5877,7 +6057,7 @@
         <v>766</v>
       </c>
       <c r="F99" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G99">
         <v>10</v>
@@ -5900,7 +6080,7 @@
         <v>767</v>
       </c>
       <c r="F100" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G100">
         <v>10</v>
@@ -5923,7 +6103,7 @@
         <v>768</v>
       </c>
       <c r="F101" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G101">
         <v>10</v>
@@ -5946,7 +6126,7 @@
         <v>769</v>
       </c>
       <c r="F102" t="s">
-        <v>929</v>
+        <v>964</v>
       </c>
       <c r="G102">
         <v>10</v>
@@ -5969,7 +6149,7 @@
         <v>770</v>
       </c>
       <c r="F103" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G103">
         <v>10</v>
@@ -5992,7 +6172,7 @@
         <v>771</v>
       </c>
       <c r="F104" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G104">
         <v>10</v>
@@ -6015,7 +6195,7 @@
         <v>772</v>
       </c>
       <c r="F105" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G105">
         <v>10</v>
@@ -6038,7 +6218,7 @@
         <v>773</v>
       </c>
       <c r="F106" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G106">
         <v>10</v>
@@ -6061,7 +6241,7 @@
         <v>774</v>
       </c>
       <c r="F107" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G107">
         <v>10</v>
@@ -6084,7 +6264,7 @@
         <v>775</v>
       </c>
       <c r="F108" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G108">
         <v>10</v>
@@ -6107,7 +6287,7 @@
         <v>776</v>
       </c>
       <c r="F109" t="s">
-        <v>929</v>
+        <v>964</v>
       </c>
       <c r="G109">
         <v>10</v>
@@ -6130,7 +6310,7 @@
         <v>777</v>
       </c>
       <c r="F110" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G110">
         <v>10</v>
@@ -6153,7 +6333,7 @@
         <v>778</v>
       </c>
       <c r="F111" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G111">
         <v>10</v>
@@ -6176,7 +6356,7 @@
         <v>779</v>
       </c>
       <c r="F112" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G112">
         <v>10</v>
@@ -6199,7 +6379,7 @@
         <v>780</v>
       </c>
       <c r="F113" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G113">
         <v>10</v>
@@ -6222,7 +6402,7 @@
         <v>781</v>
       </c>
       <c r="F114" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G114">
         <v>10</v>
@@ -6245,7 +6425,7 @@
         <v>782</v>
       </c>
       <c r="F115" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G115">
         <v>10</v>
@@ -6268,7 +6448,7 @@
         <v>783</v>
       </c>
       <c r="F116" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G116">
         <v>10</v>
@@ -6291,7 +6471,7 @@
         <v>784</v>
       </c>
       <c r="F117" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G117">
         <v>10</v>
@@ -6314,7 +6494,7 @@
         <v>785</v>
       </c>
       <c r="F118" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G118">
         <v>10</v>
@@ -6337,7 +6517,7 @@
         <v>786</v>
       </c>
       <c r="F119" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G119">
         <v>10</v>
@@ -6360,7 +6540,7 @@
         <v>787</v>
       </c>
       <c r="F120" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G120">
         <v>10</v>
@@ -6383,7 +6563,7 @@
         <v>788</v>
       </c>
       <c r="F121" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G121">
         <v>10</v>
@@ -6406,7 +6586,7 @@
         <v>789</v>
       </c>
       <c r="F122" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G122">
         <v>10</v>
@@ -6429,7 +6609,7 @@
         <v>790</v>
       </c>
       <c r="F123" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G123">
         <v>10</v>
@@ -6452,7 +6632,7 @@
         <v>791</v>
       </c>
       <c r="F124" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G124">
         <v>10</v>
@@ -6475,7 +6655,7 @@
         <v>792</v>
       </c>
       <c r="F125" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G125">
         <v>10</v>
@@ -6498,7 +6678,7 @@
         <v>793</v>
       </c>
       <c r="F126" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G126">
         <v>10</v>
@@ -6521,7 +6701,7 @@
         <v>794</v>
       </c>
       <c r="F127" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G127">
         <v>10</v>
@@ -6544,7 +6724,7 @@
         <v>795</v>
       </c>
       <c r="F128" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G128">
         <v>10</v>
@@ -6567,7 +6747,7 @@
         <v>796</v>
       </c>
       <c r="F129" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G129">
         <v>10</v>
@@ -6590,7 +6770,7 @@
         <v>797</v>
       </c>
       <c r="F130" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G130">
         <v>10</v>
@@ -6613,7 +6793,7 @@
         <v>798</v>
       </c>
       <c r="F131" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G131">
         <v>10</v>
@@ -6636,7 +6816,7 @@
         <v>799</v>
       </c>
       <c r="F132" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G132">
         <v>10</v>
@@ -6659,7 +6839,7 @@
         <v>800</v>
       </c>
       <c r="F133" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G133">
         <v>10</v>
@@ -6682,7 +6862,7 @@
         <v>801</v>
       </c>
       <c r="F134" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G134">
         <v>10</v>
@@ -6705,7 +6885,7 @@
         <v>802</v>
       </c>
       <c r="F135" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G135">
         <v>10</v>
@@ -6728,7 +6908,7 @@
         <v>803</v>
       </c>
       <c r="F136" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G136">
         <v>10</v>
@@ -6751,7 +6931,7 @@
         <v>804</v>
       </c>
       <c r="F137" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G137">
         <v>10</v>
@@ -6774,7 +6954,7 @@
         <v>805</v>
       </c>
       <c r="F138" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G138">
         <v>10</v>
@@ -6797,7 +6977,7 @@
         <v>806</v>
       </c>
       <c r="F139" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G139">
         <v>10</v>
@@ -6820,7 +7000,7 @@
         <v>807</v>
       </c>
       <c r="F140" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G140">
         <v>10</v>
@@ -6843,7 +7023,7 @@
         <v>808</v>
       </c>
       <c r="F141" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G141">
         <v>10</v>
@@ -6866,7 +7046,7 @@
         <v>809</v>
       </c>
       <c r="F142" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G142">
         <v>10</v>
@@ -6889,7 +7069,7 @@
         <v>810</v>
       </c>
       <c r="F143" t="s">
-        <v>933</v>
+        <v>965</v>
       </c>
       <c r="G143">
         <v>5</v>
@@ -6912,7 +7092,7 @@
         <v>811</v>
       </c>
       <c r="F144" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G144">
         <v>5</v>
@@ -6935,7 +7115,7 @@
         <v>812</v>
       </c>
       <c r="F145" t="s">
-        <v>933</v>
+        <v>966</v>
       </c>
       <c r="G145">
         <v>5</v>
@@ -6958,7 +7138,7 @@
         <v>813</v>
       </c>
       <c r="F146" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G146">
         <v>5</v>
@@ -6981,7 +7161,7 @@
         <v>814</v>
       </c>
       <c r="F147" t="s">
-        <v>937</v>
+        <v>967</v>
       </c>
       <c r="G147">
         <v>9</v>
@@ -7004,7 +7184,7 @@
         <v>815</v>
       </c>
       <c r="F148" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
       <c r="G148">
         <v>5</v>
@@ -7027,7 +7207,7 @@
         <v>816</v>
       </c>
       <c r="F149" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G149">
         <v>10</v>
@@ -7050,7 +7230,7 @@
         <v>817</v>
       </c>
       <c r="F150" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G150">
         <v>10</v>
@@ -7073,7 +7253,7 @@
         <v>818</v>
       </c>
       <c r="F151" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G151">
         <v>10</v>
@@ -7096,7 +7276,7 @@
         <v>819</v>
       </c>
       <c r="F152" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G152">
         <v>10</v>
@@ -7119,7 +7299,7 @@
         <v>820</v>
       </c>
       <c r="F153" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G153">
         <v>10</v>
@@ -7142,7 +7322,7 @@
         <v>821</v>
       </c>
       <c r="F154" t="s">
-        <v>929</v>
+        <v>968</v>
       </c>
       <c r="G154">
         <v>10</v>
@@ -7165,13 +7345,13 @@
         <v>822</v>
       </c>
       <c r="F155" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="G155">
         <v>3</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>938</v>
+        <v>998</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -7191,7 +7371,7 @@
         <v>823</v>
       </c>
       <c r="F156" t="s">
-        <v>933</v>
+        <v>969</v>
       </c>
       <c r="G156">
         <v>5</v>
@@ -7214,7 +7394,7 @@
         <v>824</v>
       </c>
       <c r="F157" t="s">
-        <v>936</v>
+        <v>970</v>
       </c>
       <c r="G157">
         <v>8</v>
@@ -7237,7 +7417,7 @@
         <v>825</v>
       </c>
       <c r="F158" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G158">
         <v>5</v>
@@ -7260,13 +7440,13 @@
         <v>826</v>
       </c>
       <c r="F159" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G159">
         <v>5</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>938</v>
+        <v>998</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -7286,7 +7466,7 @@
         <v>827</v>
       </c>
       <c r="F160" t="s">
-        <v>930</v>
+        <v>971</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -7309,7 +7489,7 @@
         <v>828</v>
       </c>
       <c r="F161" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G161">
         <v>5</v>
@@ -7332,13 +7512,13 @@
         <v>829</v>
       </c>
       <c r="F162" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="G162">
         <v>3</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>938</v>
+        <v>998</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -7358,7 +7538,7 @@
         <v>830</v>
       </c>
       <c r="F163" t="s">
-        <v>933</v>
+        <v>951</v>
       </c>
       <c r="G163">
         <v>5</v>
@@ -7381,7 +7561,7 @@
         <v>831</v>
       </c>
       <c r="F164" t="s">
-        <v>936</v>
+        <v>972</v>
       </c>
       <c r="G164">
         <v>8</v>
@@ -7404,7 +7584,7 @@
         <v>832</v>
       </c>
       <c r="F165" t="s">
-        <v>930</v>
+        <v>973</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -7427,13 +7607,13 @@
         <v>833</v>
       </c>
       <c r="F166" t="s">
-        <v>931</v>
+        <v>974</v>
       </c>
       <c r="G166">
         <v>3</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>938</v>
+        <v>998</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7453,7 +7633,7 @@
         <v>834</v>
       </c>
       <c r="F167" t="s">
-        <v>934</v>
+        <v>975</v>
       </c>
       <c r="G167">
         <v>7</v>
@@ -7476,7 +7656,7 @@
         <v>835</v>
       </c>
       <c r="F168" t="s">
-        <v>936</v>
+        <v>976</v>
       </c>
       <c r="G168">
         <v>8</v>
@@ -7499,7 +7679,7 @@
         <v>836</v>
       </c>
       <c r="F169" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G169">
         <v>5</v>
@@ -7522,7 +7702,7 @@
         <v>837</v>
       </c>
       <c r="F170" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G170">
         <v>5</v>
@@ -7545,7 +7725,7 @@
         <v>838</v>
       </c>
       <c r="F171" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -7568,7 +7748,7 @@
         <v>839</v>
       </c>
       <c r="F172" t="s">
-        <v>933</v>
+        <v>951</v>
       </c>
       <c r="G172">
         <v>5</v>
@@ -7591,7 +7771,7 @@
         <v>840</v>
       </c>
       <c r="F173" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G173">
         <v>5</v>
@@ -7614,7 +7794,7 @@
         <v>841</v>
       </c>
       <c r="F174" t="s">
-        <v>934</v>
+        <v>977</v>
       </c>
       <c r="G174">
         <v>7</v>
@@ -7637,7 +7817,7 @@
         <v>842</v>
       </c>
       <c r="F175" t="s">
-        <v>934</v>
+        <v>978</v>
       </c>
       <c r="G175">
         <v>7</v>
@@ -7660,7 +7840,7 @@
         <v>843</v>
       </c>
       <c r="F176" t="s">
-        <v>934</v>
+        <v>979</v>
       </c>
       <c r="G176">
         <v>7</v>
@@ -7683,13 +7863,13 @@
         <v>844</v>
       </c>
       <c r="F177" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G177">
         <v>5</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>938</v>
+        <v>998</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7709,7 +7889,7 @@
         <v>845</v>
       </c>
       <c r="F178" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G178">
         <v>5</v>
@@ -7732,7 +7912,7 @@
         <v>846</v>
       </c>
       <c r="F179" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G179">
         <v>5</v>
@@ -7755,7 +7935,7 @@
         <v>847</v>
       </c>
       <c r="F180" t="s">
-        <v>934</v>
+        <v>980</v>
       </c>
       <c r="G180">
         <v>7</v>
@@ -7778,7 +7958,7 @@
         <v>848</v>
       </c>
       <c r="F181" t="s">
-        <v>933</v>
+        <v>981</v>
       </c>
       <c r="G181">
         <v>5</v>
@@ -7801,7 +7981,7 @@
         <v>849</v>
       </c>
       <c r="F182" t="s">
-        <v>934</v>
+        <v>982</v>
       </c>
       <c r="G182">
         <v>7</v>
@@ -7824,7 +8004,7 @@
         <v>850</v>
       </c>
       <c r="F183" t="s">
-        <v>934</v>
+        <v>960</v>
       </c>
       <c r="G183">
         <v>7</v>
@@ -7847,7 +8027,7 @@
         <v>851</v>
       </c>
       <c r="F184" t="s">
-        <v>936</v>
+        <v>976</v>
       </c>
       <c r="G184">
         <v>8</v>
@@ -7870,13 +8050,13 @@
         <v>852</v>
       </c>
       <c r="F185" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="G185">
         <v>3</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>938</v>
+        <v>998</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7896,7 +8076,7 @@
         <v>853</v>
       </c>
       <c r="F186" t="s">
-        <v>936</v>
+        <v>962</v>
       </c>
       <c r="G186">
         <v>8</v>
@@ -7919,7 +8099,7 @@
         <v>854</v>
       </c>
       <c r="F187" t="s">
-        <v>931</v>
+        <v>983</v>
       </c>
       <c r="G187">
         <v>3</v>
@@ -7942,7 +8122,7 @@
         <v>855</v>
       </c>
       <c r="F188" t="s">
-        <v>933</v>
+        <v>984</v>
       </c>
       <c r="G188">
         <v>5</v>
@@ -7965,7 +8145,7 @@
         <v>856</v>
       </c>
       <c r="F189" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G189">
         <v>5</v>
@@ -7988,7 +8168,7 @@
         <v>857</v>
       </c>
       <c r="F190" t="s">
-        <v>934</v>
+        <v>985</v>
       </c>
       <c r="G190">
         <v>7</v>
@@ -8011,13 +8191,13 @@
         <v>858</v>
       </c>
       <c r="F191" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="G191">
         <v>3</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>938</v>
+        <v>998</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -8037,7 +8217,7 @@
         <v>859</v>
       </c>
       <c r="F192" t="s">
-        <v>934</v>
+        <v>975</v>
       </c>
       <c r="G192">
         <v>7</v>
@@ -8060,7 +8240,7 @@
         <v>860</v>
       </c>
       <c r="F193" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G193">
         <v>5</v>
@@ -8083,13 +8263,13 @@
         <v>861</v>
       </c>
       <c r="F194" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="G194">
         <v>3</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>938</v>
+        <v>998</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -8109,13 +8289,13 @@
         <v>862</v>
       </c>
       <c r="F195" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="G195">
         <v>3</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>938</v>
+        <v>998</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -8135,7 +8315,7 @@
         <v>863</v>
       </c>
       <c r="F196" t="s">
-        <v>935</v>
+        <v>986</v>
       </c>
       <c r="G196">
         <v>6</v>
@@ -8158,7 +8338,7 @@
         <v>864</v>
       </c>
       <c r="F197" t="s">
-        <v>933</v>
+        <v>966</v>
       </c>
       <c r="G197">
         <v>5</v>
@@ -8181,7 +8361,7 @@
         <v>865</v>
       </c>
       <c r="F198" t="s">
-        <v>934</v>
+        <v>959</v>
       </c>
       <c r="G198">
         <v>7</v>
@@ -8204,7 +8384,7 @@
         <v>866</v>
       </c>
       <c r="F199" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G199">
         <v>10</v>
@@ -8227,7 +8407,7 @@
         <v>867</v>
       </c>
       <c r="F200" t="s">
-        <v>935</v>
+        <v>987</v>
       </c>
       <c r="G200">
         <v>6</v>
@@ -8250,7 +8430,7 @@
         <v>868</v>
       </c>
       <c r="F201" t="s">
-        <v>936</v>
+        <v>988</v>
       </c>
       <c r="G201">
         <v>8</v>
@@ -8273,7 +8453,7 @@
         <v>869</v>
       </c>
       <c r="F202" t="s">
-        <v>936</v>
+        <v>988</v>
       </c>
       <c r="G202">
         <v>8</v>
@@ -8296,7 +8476,7 @@
         <v>870</v>
       </c>
       <c r="F203" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G203">
         <v>10</v>
@@ -8319,7 +8499,7 @@
         <v>871</v>
       </c>
       <c r="F204" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G204">
         <v>10</v>
@@ -8342,7 +8522,7 @@
         <v>872</v>
       </c>
       <c r="F205" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G205">
         <v>10</v>
@@ -8365,7 +8545,7 @@
         <v>873</v>
       </c>
       <c r="F206" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G206">
         <v>10</v>
@@ -8388,7 +8568,7 @@
         <v>874</v>
       </c>
       <c r="F207" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G207">
         <v>10</v>
@@ -8411,7 +8591,7 @@
         <v>875</v>
       </c>
       <c r="F208" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="G208">
         <v>6</v>
@@ -8434,7 +8614,7 @@
         <v>876</v>
       </c>
       <c r="F209" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="G209">
         <v>5</v>
@@ -8457,7 +8637,7 @@
         <v>877</v>
       </c>
       <c r="F210" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -8480,7 +8660,7 @@
         <v>878</v>
       </c>
       <c r="F211" t="s">
-        <v>934</v>
+        <v>975</v>
       </c>
       <c r="G211">
         <v>7</v>
@@ -8503,7 +8683,7 @@
         <v>879</v>
       </c>
       <c r="F212" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -8526,7 +8706,7 @@
         <v>880</v>
       </c>
       <c r="F213" t="s">
-        <v>933</v>
+        <v>966</v>
       </c>
       <c r="G213">
         <v>5</v>
@@ -8549,7 +8729,7 @@
         <v>881</v>
       </c>
       <c r="F214" t="s">
-        <v>933</v>
+        <v>966</v>
       </c>
       <c r="G214">
         <v>5</v>
@@ -8572,7 +8752,7 @@
         <v>882</v>
       </c>
       <c r="F215" t="s">
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="G215">
         <v>4</v>
@@ -8595,7 +8775,7 @@
         <v>883</v>
       </c>
       <c r="F216" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="G216">
         <v>2</v>
@@ -8618,7 +8798,7 @@
         <v>884</v>
       </c>
       <c r="F217" t="s">
-        <v>930</v>
+        <v>989</v>
       </c>
       <c r="G217">
         <v>2</v>
@@ -8641,7 +8821,7 @@
         <v>885</v>
       </c>
       <c r="F218" t="s">
-        <v>934</v>
+        <v>975</v>
       </c>
       <c r="G218">
         <v>7</v>
@@ -8664,7 +8844,7 @@
         <v>886</v>
       </c>
       <c r="F219" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -8687,7 +8867,7 @@
         <v>887</v>
       </c>
       <c r="F220" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="G220">
         <v>6</v>
@@ -8710,7 +8890,7 @@
         <v>888</v>
       </c>
       <c r="F221" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="G221">
         <v>6</v>
@@ -8733,7 +8913,7 @@
         <v>889</v>
       </c>
       <c r="F222" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="G222">
         <v>6</v>
@@ -8756,7 +8936,7 @@
         <v>890</v>
       </c>
       <c r="F223" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G223">
         <v>10</v>
@@ -8779,7 +8959,7 @@
         <v>891</v>
       </c>
       <c r="F224" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G224">
         <v>10</v>
@@ -8802,7 +8982,7 @@
         <v>892</v>
       </c>
       <c r="F225" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G225">
         <v>10</v>
@@ -8825,7 +9005,7 @@
         <v>893</v>
       </c>
       <c r="F226" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G226">
         <v>10</v>
@@ -8848,7 +9028,7 @@
         <v>894</v>
       </c>
       <c r="F227" t="s">
-        <v>934</v>
+        <v>960</v>
       </c>
       <c r="G227">
         <v>7</v>
@@ -8871,7 +9051,7 @@
         <v>895</v>
       </c>
       <c r="F228" t="s">
-        <v>935</v>
+        <v>987</v>
       </c>
       <c r="G228">
         <v>6</v>
@@ -8894,7 +9074,7 @@
         <v>896</v>
       </c>
       <c r="F229" t="s">
-        <v>935</v>
+        <v>990</v>
       </c>
       <c r="G229">
         <v>6</v>
@@ -8917,7 +9097,7 @@
         <v>897</v>
       </c>
       <c r="F230" t="s">
-        <v>935</v>
+        <v>991</v>
       </c>
       <c r="G230">
         <v>6</v>
@@ -8940,7 +9120,7 @@
         <v>898</v>
       </c>
       <c r="F231" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="G231">
         <v>6</v>
@@ -8963,7 +9143,7 @@
         <v>899</v>
       </c>
       <c r="F232" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="G232">
         <v>6</v>
@@ -8986,7 +9166,7 @@
         <v>900</v>
       </c>
       <c r="F233" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="G233">
         <v>6</v>
@@ -9009,7 +9189,7 @@
         <v>901</v>
       </c>
       <c r="F234" t="s">
-        <v>935</v>
+        <v>992</v>
       </c>
       <c r="G234">
         <v>6</v>
@@ -9032,7 +9212,7 @@
         <v>902</v>
       </c>
       <c r="F235" t="s">
-        <v>935</v>
+        <v>993</v>
       </c>
       <c r="G235">
         <v>6</v>
@@ -9055,7 +9235,7 @@
         <v>903</v>
       </c>
       <c r="F236" t="s">
-        <v>935</v>
+        <v>991</v>
       </c>
       <c r="G236">
         <v>6</v>
@@ -9078,7 +9258,7 @@
         <v>904</v>
       </c>
       <c r="F237" t="s">
-        <v>935</v>
+        <v>991</v>
       </c>
       <c r="G237">
         <v>6</v>
@@ -9101,7 +9281,7 @@
         <v>905</v>
       </c>
       <c r="F238" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="G238">
         <v>6</v>
@@ -9124,7 +9304,7 @@
         <v>906</v>
       </c>
       <c r="F239" t="s">
-        <v>935</v>
+        <v>991</v>
       </c>
       <c r="G239">
         <v>6</v>
@@ -9147,7 +9327,7 @@
         <v>907</v>
       </c>
       <c r="F240" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="G240">
         <v>6</v>
@@ -9170,7 +9350,7 @@
         <v>908</v>
       </c>
       <c r="F241" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="G241">
         <v>6</v>
@@ -9193,7 +9373,7 @@
         <v>909</v>
       </c>
       <c r="F242" t="s">
-        <v>935</v>
+        <v>994</v>
       </c>
       <c r="G242">
         <v>6</v>
@@ -9216,7 +9396,7 @@
         <v>910</v>
       </c>
       <c r="F243" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="G243">
         <v>6</v>
@@ -9239,7 +9419,7 @@
         <v>911</v>
       </c>
       <c r="F244" t="s">
-        <v>935</v>
+        <v>992</v>
       </c>
       <c r="G244">
         <v>6</v>
@@ -9262,7 +9442,7 @@
         <v>912</v>
       </c>
       <c r="F245" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="G245">
         <v>6</v>
@@ -9285,7 +9465,7 @@
         <v>913</v>
       </c>
       <c r="F246" t="s">
-        <v>935</v>
+        <v>991</v>
       </c>
       <c r="G246">
         <v>6</v>
@@ -9308,7 +9488,7 @@
         <v>914</v>
       </c>
       <c r="F247" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="G247">
         <v>6</v>
@@ -9331,7 +9511,7 @@
         <v>915</v>
       </c>
       <c r="F248" t="s">
-        <v>935</v>
+        <v>993</v>
       </c>
       <c r="G248">
         <v>6</v>
@@ -9354,7 +9534,7 @@
         <v>916</v>
       </c>
       <c r="F249" t="s">
-        <v>935</v>
+        <v>995</v>
       </c>
       <c r="G249">
         <v>6</v>
@@ -9377,7 +9557,7 @@
         <v>917</v>
       </c>
       <c r="F250" t="s">
-        <v>935</v>
+        <v>991</v>
       </c>
       <c r="G250">
         <v>6</v>
@@ -9400,7 +9580,7 @@
         <v>918</v>
       </c>
       <c r="F251" t="s">
-        <v>935</v>
+        <v>991</v>
       </c>
       <c r="G251">
         <v>6</v>
@@ -9423,7 +9603,7 @@
         <v>919</v>
       </c>
       <c r="F252" t="s">
-        <v>935</v>
+        <v>991</v>
       </c>
       <c r="G252">
         <v>6</v>
@@ -9446,7 +9626,7 @@
         <v>920</v>
       </c>
       <c r="F253" t="s">
-        <v>935</v>
+        <v>991</v>
       </c>
       <c r="G253">
         <v>6</v>
@@ -9469,7 +9649,7 @@
         <v>921</v>
       </c>
       <c r="F254" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="G254">
         <v>6</v>
@@ -9492,7 +9672,7 @@
         <v>922</v>
       </c>
       <c r="F255" t="s">
-        <v>935</v>
+        <v>993</v>
       </c>
       <c r="G255">
         <v>6</v>
@@ -9515,7 +9695,7 @@
         <v>923</v>
       </c>
       <c r="F256" t="s">
-        <v>935</v>
+        <v>996</v>
       </c>
       <c r="G256">
         <v>6</v>
@@ -9538,7 +9718,7 @@
         <v>924</v>
       </c>
       <c r="F257" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="G257">
         <v>6</v>
@@ -9561,7 +9741,7 @@
         <v>925</v>
       </c>
       <c r="F258" t="s">
-        <v>935</v>
+        <v>997</v>
       </c>
       <c r="G258">
         <v>6</v>
@@ -9584,7 +9764,7 @@
         <v>926</v>
       </c>
       <c r="F259" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="G259">
         <v>6</v>
@@ -9607,7 +9787,7 @@
         <v>927</v>
       </c>
       <c r="F260" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="G260">
         <v>10</v>

--- a/data/cultural_objects_mnn.xlsx
+++ b/data/cultural_objects_mnn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="940">
   <si>
     <t>id</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>avg_visit_hours</t>
   </si>
   <si>
     <t>Нижний Новгород, Нижне-Волжская набережная</t>
@@ -3181,214 +3184,34 @@
     <t>Керамическое панно «Юность»</t>
   </si>
   <si>
-    <t>1,2,8,9,25</t>
-  </si>
-  <si>
-    <t>1,2,8,13</t>
-  </si>
-  <si>
-    <t>1,2,8,9,10</t>
-  </si>
-  <si>
     <t>1,2,8</t>
   </si>
   <si>
     <t>24,27,28</t>
   </si>
   <si>
-    <t>3,4,5,25</t>
-  </si>
-  <si>
     <t>3,4,5</t>
   </si>
   <si>
-    <t>1,3,4,5</t>
-  </si>
-  <si>
-    <t>3,4,5,12</t>
-  </si>
-  <si>
-    <t>3,4,5,10,13,18</t>
-  </si>
-  <si>
-    <t>3,4,5,11,13</t>
-  </si>
-  <si>
-    <t>3,4,5,9</t>
-  </si>
-  <si>
     <t>2,6,7,8</t>
   </si>
   <si>
-    <t>3,4,9</t>
-  </si>
-  <si>
-    <t>3,9,10,11,25</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>1,3,9,18</t>
-  </si>
-  <si>
-    <t>3,9</t>
-  </si>
-  <si>
     <t>10,11,12,13,14</t>
   </si>
   <si>
-    <t>9,10,11,12,13,14</t>
-  </si>
-  <si>
-    <t>1,6,10,11,12,13,14</t>
-  </si>
-  <si>
-    <t>9,10,11,12,13,14,25</t>
-  </si>
-  <si>
-    <t>3,9,10,11,12,13,14</t>
-  </si>
-  <si>
-    <t>10,11,12,13,14,19</t>
-  </si>
-  <si>
-    <t>1,10,11,12,13,14,19</t>
-  </si>
-  <si>
-    <t>10,11,12,13,14,25</t>
-  </si>
-  <si>
-    <t>10,11,12,13,14,15,18,21</t>
-  </si>
-  <si>
-    <t>3,7,10,11,12,13,14,23</t>
-  </si>
-  <si>
-    <t>1,10,19,20</t>
+    <t>19,20</t>
   </si>
   <si>
     <t>15,16,17,18</t>
   </si>
   <si>
-    <t>11,19,20</t>
-  </si>
-  <si>
-    <t>19,20</t>
-  </si>
-  <si>
-    <t>13,18,19,20</t>
-  </si>
-  <si>
-    <t>10,13,18,21,22,23,24,28</t>
-  </si>
-  <si>
-    <t>10,13,21,22,23,24,28</t>
-  </si>
-  <si>
-    <t>11,21,22,23,24,28</t>
-  </si>
-  <si>
-    <t>3,24,27,28</t>
-  </si>
-  <si>
-    <t>10,11,12,13,14,15</t>
-  </si>
-  <si>
-    <t>1,10,11,12,13,14</t>
+    <t>21,22,23,24,28</t>
   </si>
   <si>
     <t>25,26</t>
-  </si>
-  <si>
-    <t>21,24,27,28</t>
-  </si>
-  <si>
-    <t>7,10,11,12,13,14,25</t>
-  </si>
-  <si>
-    <t>10,13,21,22,23,24,25,28</t>
-  </si>
-  <si>
-    <t>3,4,5,19,20</t>
-  </si>
-  <si>
-    <t>10,21,22,23,24,28</t>
-  </si>
-  <si>
-    <t>3,4,5,13</t>
-  </si>
-  <si>
-    <t>2,6,7,8,9</t>
-  </si>
-  <si>
-    <t>13,19,20</t>
-  </si>
-  <si>
-    <t>13,21,22,23,24,28</t>
-  </si>
-  <si>
-    <t>11,19,20,24,28</t>
-  </si>
-  <si>
-    <t>9,18,19,20</t>
-  </si>
-  <si>
-    <t>9,10,19,20</t>
-  </si>
-  <si>
-    <t>13,15,18,19,20</t>
-  </si>
-  <si>
-    <t>10,11,12,13,14,24,28</t>
-  </si>
-  <si>
-    <t>15,19,20</t>
-  </si>
-  <si>
-    <t>2,6,7,8,13</t>
-  </si>
-  <si>
-    <t>3,10,11,12,13,14</t>
-  </si>
-  <si>
-    <t>9,19,20</t>
-  </si>
-  <si>
-    <t>5,10,13,15,16,17,18</t>
-  </si>
-  <si>
-    <t>10,15,16,17,18</t>
-  </si>
-  <si>
-    <t>21,22,23,24,28</t>
-  </si>
-  <si>
-    <t>3,4,5,23</t>
-  </si>
-  <si>
-    <t>12,13,15,16,17,18,20</t>
-  </si>
-  <si>
-    <t>13,15,16,17,18</t>
-  </si>
-  <si>
-    <t>15,16,17,18,20</t>
-  </si>
-  <si>
-    <t>13,15,16,17,18,19</t>
-  </si>
-  <si>
-    <t>15,16,17,18,21</t>
-  </si>
-  <si>
-    <t>9,10,15,16,17,18</t>
-  </si>
-  <si>
-    <t>10,13,15,16,17,18</t>
-  </si>
-  <si>
-    <t>3,13,15,16,17,18</t>
   </si>
   <si>
     <t>https://nn-grad.ru/audiogidy/</t>
@@ -3762,13 +3585,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H260"/>
+  <dimension ref="A1:I260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3793,45 +3616,51 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E3" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F3" t="s">
         <v>929</v>
@@ -3839,68 +3668,77 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E4" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E5" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E6" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F6" t="s">
         <v>929</v>
@@ -3908,22 +3746,25 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F7" t="s">
         <v>929</v>
@@ -3931,22 +3772,25 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E8" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F8" t="s">
         <v>929</v>
@@ -3954,22 +3798,25 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E9" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F9" t="s">
         <v>929</v>
@@ -3977,68 +3824,77 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E10" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F10" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E11" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F11" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E12" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F12" t="s">
         <v>929</v>
@@ -4046,5751 +3902,6498 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E13" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F13" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D14" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E14" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F14" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D15" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E15" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F15" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D16" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E16" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F16" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>149</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D17" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E17" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F17" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D18" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E18" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F18" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D19" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E19" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F19" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D20" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E20" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F20" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D21" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E21" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F21" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D22" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F22" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E23" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F23" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D24" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E24" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F24" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D25" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E25" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F25" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D26" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E26" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F26" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D27" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E27" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F27" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D28" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E28" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F28" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D29" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E29" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F29" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D30" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E30" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F30" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>225</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D31" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E31" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F31" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>140</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D32" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E32" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F32" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="G32">
         <v>3</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>939</v>
+      </c>
+      <c r="I32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>143</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D33" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E33" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F33" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>939</v>
+      </c>
+      <c r="I33">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D34" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E34" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F34" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="G34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>227</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D35" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E35" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F35" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>226</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D36" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E36" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F36" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D37" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E37" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F37" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="G37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D38" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E38" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F38" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="G38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D39" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E39" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F39" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="G39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D40" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E40" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F40" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="G40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>138</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D41" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E41" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F41" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="G41">
         <v>3</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>939</v>
+      </c>
+      <c r="I41">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>150</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D42" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E42" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F42" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G42">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D43" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E43" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F43" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="G43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>131</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D44" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E44" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F44" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>939</v>
+      </c>
+      <c r="I44">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D45" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E45" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F45" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G45">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D46" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E46" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F46" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="G46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D47" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E47" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F47" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="G47">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D48" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E48" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F48" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D49" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E49" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F49" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G49">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D50" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E50" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F50" t="s">
-        <v>949</v>
+        <v>934</v>
       </c>
       <c r="G50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D51" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E51" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F51" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
       <c r="G51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D52" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E52" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F52" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G52">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D53" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E53" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F53" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G53">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D54" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E54" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F54" t="s">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="G54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D55" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E55" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F55" t="s">
-        <v>952</v>
+        <v>934</v>
       </c>
       <c r="G55">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D56" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E56" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F56" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G56">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>139</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D57" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E57" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F57" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="G57">
         <v>3</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>939</v>
+      </c>
+      <c r="I57">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D58" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E58" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F58" t="s">
-        <v>953</v>
+        <v>934</v>
       </c>
       <c r="G58">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D59" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E59" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F59" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>151</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D60" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E60" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F60" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G60">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D61" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E61" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F61" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G61">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D62" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E62" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F62" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G62">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D63" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E63" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F63" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G63">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D64" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E64" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F64" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G64">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="I64">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C65" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D65" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E65" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F65" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G65">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="I65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>107</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D66" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E66" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F66" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="G66">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="I66">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D67" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E67" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F67" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G67">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="I67">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>101</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D68" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E68" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F68" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G68">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="I68">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>104</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D69" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E69" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F69" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G69">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>106</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D70" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E70" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F70" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G70">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="I70">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>18</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D71" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E71" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F71" t="s">
-        <v>954</v>
+        <v>934</v>
       </c>
       <c r="G71">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="I71">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C72" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D72" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E72" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F72" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G72">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D73" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E73" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F73" t="s">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="G73">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="I73">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D74" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E74" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F74" t="s">
-        <v>955</v>
+        <v>934</v>
       </c>
       <c r="G74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="I74">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>37</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D75" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E75" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F75" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="G75">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="I75">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D76" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E76" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F76" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G76">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="I76">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>48</v>
       </c>
       <c r="B77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C77" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D77" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E77" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F77" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="I77">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>54</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C78" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D78" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E78" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F78" t="s">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="G78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="I78">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>60</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C79" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D79" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E79" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F79" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G79">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="I79">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>65</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D80" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E80" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F80" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G80">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="I80">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C81" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D81" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E81" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F81" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G81">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="I81">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C82" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D82" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E82" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F82" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G82">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="I82">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>100</v>
       </c>
       <c r="B83" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C83" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D83" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E83" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F83" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G83">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="I83">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>105</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C84" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D84" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E84" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F84" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G84">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="I84">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C85" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D85" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E85" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F85" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G85">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="I85">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>111</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D86" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E86" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F86" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="G86">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="I86">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>170</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C87" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D87" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E87" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F87" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G87">
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="I87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>232</v>
       </c>
       <c r="B88" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C88" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D88" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E88" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F88" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="G88">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="I88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>112</v>
       </c>
       <c r="B89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C89" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D89" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E89" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F89" t="s">
-        <v>958</v>
+        <v>935</v>
       </c>
       <c r="G89">
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="I89">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D90" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E90" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F90" t="s">
-        <v>959</v>
+        <v>935</v>
       </c>
       <c r="G90">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="I90">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>119</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C91" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D91" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E91" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F91" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="G91">
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="I91">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>218</v>
       </c>
       <c r="B92" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C92" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D92" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E92" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F92" t="s">
-        <v>959</v>
+        <v>935</v>
       </c>
       <c r="G92">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="I92">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>171</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C93" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D93" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E93" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F93" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G93">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="I93">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>73</v>
       </c>
       <c r="B94" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C94" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D94" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E94" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F94" t="s">
-        <v>961</v>
+        <v>937</v>
       </c>
       <c r="G94">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="I94">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>77</v>
       </c>
       <c r="B95" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C95" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D95" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E95" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F95" t="s">
-        <v>962</v>
+        <v>937</v>
       </c>
       <c r="G95">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="I95">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>78</v>
       </c>
       <c r="B96" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D96" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E96" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F96" t="s">
-        <v>963</v>
+        <v>937</v>
       </c>
       <c r="G96">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="I96">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>176</v>
       </c>
       <c r="B97" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C97" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D97" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E97" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F97" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G97">
         <v>10</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="I97">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>167</v>
       </c>
       <c r="B98" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C98" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D98" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E98" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F98" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G98">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="I98">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>178</v>
       </c>
       <c r="B99" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C99" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D99" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E99" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F99" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G99">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="I99">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>187</v>
       </c>
       <c r="B100" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C100" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D100" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E100" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F100" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G100">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="I100">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>174</v>
       </c>
       <c r="B101" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C101" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D101" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E101" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F101" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G101">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="I101">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>154</v>
       </c>
       <c r="B102" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C102" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D102" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E102" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F102" t="s">
-        <v>964</v>
+        <v>930</v>
       </c>
       <c r="G102">
         <v>10</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="I102">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>184</v>
       </c>
       <c r="B103" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C103" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D103" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E103" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F103" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G103">
         <v>10</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="I103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>194</v>
       </c>
       <c r="B104" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C104" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D104" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E104" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F104" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G104">
         <v>10</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="I104">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>165</v>
       </c>
       <c r="B105" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C105" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D105" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E105" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F105" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G105">
         <v>10</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="I105">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>155</v>
       </c>
       <c r="B106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C106" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D106" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E106" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F106" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G106">
         <v>10</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="I106">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>156</v>
       </c>
       <c r="B107" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C107" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D107" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E107" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F107" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G107">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="I107">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>179</v>
       </c>
       <c r="B108" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C108" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D108" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E108" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F108" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G108">
         <v>10</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="I108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109">
         <v>153</v>
       </c>
       <c r="B109" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C109" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D109" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E109" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F109" t="s">
-        <v>964</v>
+        <v>930</v>
       </c>
       <c r="G109">
         <v>10</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="I109">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110">
         <v>173</v>
       </c>
       <c r="B110" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C110" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D110" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E110" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F110" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G110">
         <v>10</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="I110">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111">
         <v>163</v>
       </c>
       <c r="B111" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C111" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D111" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E111" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F111" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G111">
         <v>10</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="I111">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112">
         <v>164</v>
       </c>
       <c r="B112" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C112" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D112" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E112" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F112" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G112">
         <v>10</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="I112">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113">
         <v>198</v>
       </c>
       <c r="B113" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C113" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D113" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E113" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F113" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G113">
         <v>10</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="I113">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114">
         <v>180</v>
       </c>
       <c r="B114" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C114" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D114" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E114" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F114" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G114">
         <v>10</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="I114">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115">
         <v>182</v>
       </c>
       <c r="B115" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C115" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D115" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E115" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F115" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G115">
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="I115">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116">
         <v>183</v>
       </c>
       <c r="B116" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C116" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D116" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E116" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F116" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G116">
         <v>10</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="I116">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117">
         <v>161</v>
       </c>
       <c r="B117" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C117" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D117" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E117" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F117" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G117">
         <v>10</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="I117">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118">
         <v>158</v>
       </c>
       <c r="B118" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C118" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D118" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E118" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F118" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G118">
         <v>10</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="I118">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119">
         <v>181</v>
       </c>
       <c r="B119" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C119" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D119" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E119" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F119" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G119">
         <v>10</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="I119">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120">
         <v>159</v>
       </c>
       <c r="B120" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C120" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D120" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E120" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F120" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G120">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="I120">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121">
         <v>188</v>
       </c>
       <c r="B121" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C121" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D121" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E121" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F121" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G121">
         <v>10</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="I121">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122">
         <v>189</v>
       </c>
       <c r="B122" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C122" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D122" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E122" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F122" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G122">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="I122">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123">
         <v>190</v>
       </c>
       <c r="B123" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C123" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D123" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E123" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F123" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G123">
         <v>10</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="I123">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124">
         <v>191</v>
       </c>
       <c r="B124" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C124" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D124" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E124" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F124" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G124">
         <v>10</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="I124">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125">
         <v>192</v>
       </c>
       <c r="B125" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C125" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D125" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E125" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F125" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G125">
         <v>10</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="I125">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126">
         <v>193</v>
       </c>
       <c r="B126" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C126" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D126" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E126" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F126" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G126">
         <v>10</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="I126">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127">
         <v>200</v>
       </c>
       <c r="B127" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C127" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D127" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E127" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F127" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G127">
         <v>10</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="I127">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128">
         <v>201</v>
       </c>
       <c r="B128" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C128" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D128" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E128" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F128" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G128">
         <v>10</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="I128">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129">
         <v>205</v>
       </c>
       <c r="B129" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C129" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D129" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E129" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F129" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G129">
         <v>10</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="I129">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130">
         <v>214</v>
       </c>
       <c r="B130" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C130" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D130" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E130" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F130" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G130">
         <v>10</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="I130">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131">
         <v>199</v>
       </c>
       <c r="B131" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C131" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D131" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E131" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F131" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G131">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="I131">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132">
         <v>209</v>
       </c>
       <c r="B132" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C132" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D132" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E132" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F132" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G132">
         <v>10</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="I132">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133">
         <v>211</v>
       </c>
       <c r="B133" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C133" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D133" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E133" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F133" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G133">
         <v>10</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="I133">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134">
         <v>212</v>
       </c>
       <c r="B134" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C134" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D134" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E134" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F134" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G134">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="I134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135">
         <v>213</v>
       </c>
       <c r="B135" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C135" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D135" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E135" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F135" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G135">
         <v>10</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="I135">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136">
         <v>215</v>
       </c>
       <c r="B136" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C136" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D136" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E136" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F136" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G136">
         <v>10</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="I136">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137">
         <v>216</v>
       </c>
       <c r="B137" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C137" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D137" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E137" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F137" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G137">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="I137">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138">
         <v>206</v>
       </c>
       <c r="B138" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C138" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D138" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E138" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F138" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G138">
         <v>10</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="I138">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139">
         <v>208</v>
       </c>
       <c r="B139" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C139" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D139" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E139" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F139" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G139">
         <v>10</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="I139">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140">
         <v>207</v>
       </c>
       <c r="B140" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C140" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D140" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E140" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F140" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G140">
         <v>10</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="I140">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141">
         <v>152</v>
       </c>
       <c r="B141" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C141" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D141" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E141" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F141" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G141">
         <v>10</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="I141">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142">
         <v>157</v>
       </c>
       <c r="B142" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C142" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D142" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E142" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F142" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G142">
         <v>10</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="I142">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143">
         <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C143" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D143" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E143" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F143" t="s">
-        <v>965</v>
+        <v>934</v>
       </c>
       <c r="G143">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="I143">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144">
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C144" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D144" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E144" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F144" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G144">
         <v>5</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145">
         <v>17</v>
       </c>
       <c r="B145" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C145" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D145" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E145" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F145" t="s">
-        <v>966</v>
+        <v>934</v>
       </c>
       <c r="G145">
         <v>5</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="I145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146">
         <v>31</v>
       </c>
       <c r="B146" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C146" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D146" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E146" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F146" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G146">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147">
         <v>132</v>
       </c>
       <c r="B147" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C147" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D147" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E147" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F147" t="s">
-        <v>967</v>
+        <v>938</v>
       </c>
       <c r="G147">
         <v>9</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="I147">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148">
         <v>34</v>
       </c>
       <c r="B148" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C148" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D148" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E148" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F148" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="G148">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="I148">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149">
         <v>186</v>
       </c>
       <c r="B149" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C149" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D149" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E149" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F149" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G149">
         <v>10</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="I149">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150">
         <v>177</v>
       </c>
       <c r="B150" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C150" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D150" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E150" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F150" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G150">
         <v>10</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="I150">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151">
         <v>168</v>
       </c>
       <c r="B151" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C151" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D151" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E151" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F151" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G151">
         <v>10</v>
       </c>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="I151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152">
         <v>195</v>
       </c>
       <c r="B152" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C152" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D152" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E152" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F152" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G152">
         <v>10</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="I152">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153">
         <v>185</v>
       </c>
       <c r="B153" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C153" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D153" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E153" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F153" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G153">
         <v>10</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
+      <c r="I153">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154">
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C154" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D154" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E154" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F154" t="s">
-        <v>968</v>
+        <v>930</v>
       </c>
       <c r="G154">
         <v>10</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="I154">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155">
         <v>142</v>
       </c>
       <c r="B155" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C155" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D155" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E155" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F155" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="G155">
         <v>3</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>939</v>
+      </c>
+      <c r="I155">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156">
         <v>42</v>
       </c>
       <c r="B156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C156" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D156" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E156" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F156" t="s">
-        <v>969</v>
+        <v>934</v>
       </c>
       <c r="G156">
         <v>5</v>
       </c>
-    </row>
-    <row r="157" spans="1:8">
+      <c r="I156">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157">
         <v>75</v>
       </c>
       <c r="B157" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C157" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D157" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E157" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F157" t="s">
-        <v>970</v>
+        <v>937</v>
       </c>
       <c r="G157">
         <v>8</v>
       </c>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="I157">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158">
         <v>45</v>
       </c>
       <c r="B158" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C158" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D158" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E158" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F158" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G158">
         <v>5</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="I158">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159">
         <v>58</v>
       </c>
       <c r="B159" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C159" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D159" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E159" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F159" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G159">
         <v>5</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>939</v>
+      </c>
+      <c r="I159">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160">
         <v>56</v>
       </c>
       <c r="B160" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C160" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D160" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E160" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F160" t="s">
-        <v>971</v>
+        <v>931</v>
       </c>
       <c r="G160">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:8">
+      <c r="I160">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161">
         <v>52</v>
       </c>
       <c r="B161" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C161" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D161" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E161" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F161" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G161">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="I161">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162">
         <v>137</v>
       </c>
       <c r="B162" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C162" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D162" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E162" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F162" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="G162">
         <v>3</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>939</v>
+      </c>
+      <c r="I162">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163">
         <v>63</v>
       </c>
       <c r="B163" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C163" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D163" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E163" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F163" t="s">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="G163">
         <v>5</v>
       </c>
-    </row>
-    <row r="164" spans="1:8">
+      <c r="I163">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164">
         <v>74</v>
       </c>
       <c r="B164" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C164" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D164" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E164" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F164" t="s">
-        <v>972</v>
+        <v>937</v>
       </c>
       <c r="G164">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="1:8">
+      <c r="I164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165">
         <v>83</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C165" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D165" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E165" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F165" t="s">
-        <v>973</v>
+        <v>931</v>
       </c>
       <c r="G165">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:8">
+      <c r="I165">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166">
         <v>141</v>
       </c>
       <c r="B166" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C166" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D166" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E166" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F166" t="s">
-        <v>974</v>
+        <v>932</v>
       </c>
       <c r="G166">
         <v>3</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>939</v>
+      </c>
+      <c r="I166">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167">
         <v>117</v>
       </c>
       <c r="B167" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C167" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D167" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E167" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F167" t="s">
-        <v>975</v>
+        <v>935</v>
       </c>
       <c r="G167">
         <v>7</v>
       </c>
-    </row>
-    <row r="168" spans="1:8">
+      <c r="I167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168">
         <v>79</v>
       </c>
       <c r="B168" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C168" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D168" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E168" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F168" t="s">
-        <v>976</v>
+        <v>937</v>
       </c>
       <c r="G168">
         <v>8</v>
       </c>
-    </row>
-    <row r="169" spans="1:8">
+      <c r="I168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169">
         <v>91</v>
       </c>
       <c r="B169" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C169" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D169" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E169" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F169" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G169">
         <v>5</v>
       </c>
-    </row>
-    <row r="170" spans="1:8">
+      <c r="I169">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170">
         <v>93</v>
       </c>
       <c r="B170" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C170" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D170" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E170" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F170" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G170">
         <v>5</v>
       </c>
-    </row>
-    <row r="171" spans="1:8">
+      <c r="I170">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171">
         <v>94</v>
       </c>
       <c r="B171" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C171" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D171" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E171" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F171" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G171">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:8">
+      <c r="I171">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172">
         <v>96</v>
       </c>
       <c r="B172" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C172" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D172" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E172" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F172" t="s">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="G172">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="I172">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173">
         <v>103</v>
       </c>
       <c r="B173" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C173" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D173" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E173" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="F173" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G173">
         <v>5</v>
       </c>
-    </row>
-    <row r="174" spans="1:8">
+      <c r="I173">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174">
         <v>109</v>
       </c>
       <c r="B174" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C174" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D174" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E174" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F174" t="s">
-        <v>977</v>
+        <v>935</v>
       </c>
       <c r="G174">
         <v>7</v>
       </c>
-    </row>
-    <row r="175" spans="1:8">
+      <c r="I174">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175">
         <v>115</v>
       </c>
       <c r="B175" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C175" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D175" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E175" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F175" t="s">
-        <v>978</v>
+        <v>935</v>
       </c>
       <c r="G175">
         <v>7</v>
       </c>
-    </row>
-    <row r="176" spans="1:8">
+      <c r="I175">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176">
         <v>116</v>
       </c>
       <c r="B176" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C176" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D176" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E176" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F176" t="s">
-        <v>979</v>
+        <v>935</v>
       </c>
       <c r="G176">
         <v>7</v>
       </c>
-    </row>
-    <row r="177" spans="1:8">
+      <c r="I176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177">
         <v>5</v>
       </c>
       <c r="B177" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C177" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D177" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E177" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F177" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G177">
         <v>5</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>939</v>
+      </c>
+      <c r="I177">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178">
         <v>59</v>
       </c>
       <c r="B178" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C178" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D178" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E178" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F178" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G178">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="1:8">
+      <c r="I178">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179">
         <v>28</v>
       </c>
       <c r="B179" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C179" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D179" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E179" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F179" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G179">
         <v>5</v>
       </c>
-    </row>
-    <row r="180" spans="1:8">
+      <c r="I179">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180">
         <v>114</v>
       </c>
       <c r="B180" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C180" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D180" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E180" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F180" t="s">
-        <v>980</v>
+        <v>935</v>
       </c>
       <c r="G180">
         <v>7</v>
       </c>
-    </row>
-    <row r="181" spans="1:8">
+      <c r="I180">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181">
         <v>36</v>
       </c>
       <c r="B181" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C181" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D181" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E181" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F181" t="s">
-        <v>981</v>
+        <v>934</v>
       </c>
       <c r="G181">
         <v>5</v>
       </c>
-    </row>
-    <row r="182" spans="1:8">
+      <c r="I181">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182">
         <v>33</v>
       </c>
       <c r="B182" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C182" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D182" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E182" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F182" t="s">
-        <v>982</v>
+        <v>935</v>
       </c>
       <c r="G182">
         <v>7</v>
       </c>
-    </row>
-    <row r="183" spans="1:8">
+      <c r="I182">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183">
         <v>110</v>
       </c>
       <c r="B183" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C183" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D183" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E183" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F183" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="G183">
         <v>7</v>
       </c>
-    </row>
-    <row r="184" spans="1:8">
+      <c r="I183">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184">
         <v>64</v>
       </c>
       <c r="B184" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C184" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D184" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E184" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F184" t="s">
-        <v>976</v>
+        <v>937</v>
       </c>
       <c r="G184">
         <v>8</v>
       </c>
-    </row>
-    <row r="185" spans="1:8">
+      <c r="I184">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185">
         <v>144</v>
       </c>
       <c r="B185" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C185" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D185" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E185" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F185" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="G185">
         <v>3</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>939</v>
+      </c>
+      <c r="I185">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186">
         <v>76</v>
       </c>
       <c r="B186" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C186" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D186" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E186" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F186" t="s">
-        <v>962</v>
+        <v>937</v>
       </c>
       <c r="G186">
         <v>8</v>
       </c>
-    </row>
-    <row r="187" spans="1:8">
+      <c r="I186">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187">
         <v>135</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C187" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D187" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E187" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F187" t="s">
-        <v>983</v>
+        <v>932</v>
       </c>
       <c r="G187">
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="1:8">
+      <c r="I187">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188">
         <v>90</v>
       </c>
       <c r="B188" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C188" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D188" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E188" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F188" t="s">
-        <v>984</v>
+        <v>934</v>
       </c>
       <c r="G188">
         <v>5</v>
       </c>
-    </row>
-    <row r="189" spans="1:8">
+      <c r="I188">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189">
         <v>102</v>
       </c>
       <c r="B189" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C189" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D189" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E189" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F189" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G189">
         <v>5</v>
       </c>
-    </row>
-    <row r="190" spans="1:8">
+      <c r="I189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190">
         <v>120</v>
       </c>
       <c r="B190" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C190" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D190" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E190" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F190" t="s">
-        <v>985</v>
+        <v>935</v>
       </c>
       <c r="G190">
         <v>7</v>
       </c>
-    </row>
-    <row r="191" spans="1:8">
+      <c r="I190">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191">
         <v>134</v>
       </c>
       <c r="B191" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C191" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D191" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E191" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F191" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="G191">
         <v>3</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>939</v>
+      </c>
+      <c r="I191">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192">
         <v>121</v>
       </c>
       <c r="B192" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C192" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D192" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E192" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F192" t="s">
-        <v>975</v>
+        <v>935</v>
       </c>
       <c r="G192">
         <v>7</v>
       </c>
-    </row>
-    <row r="193" spans="1:8">
+      <c r="I192">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193">
         <v>95</v>
       </c>
       <c r="B193" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C193" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D193" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E193" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F193" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G193">
         <v>5</v>
       </c>
-    </row>
-    <row r="194" spans="1:8">
+      <c r="I193">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194">
         <v>133</v>
       </c>
       <c r="B194" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C194" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D194" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E194" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F194" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="G194">
         <v>3</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>939</v>
+      </c>
+      <c r="I194">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195">
         <v>136</v>
       </c>
       <c r="B195" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C195" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D195" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E195" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F195" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="G195">
         <v>3</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>939</v>
+      </c>
+      <c r="I195">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196">
         <v>219</v>
       </c>
       <c r="B196" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C196" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D196" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E196" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F196" t="s">
-        <v>986</v>
+        <v>936</v>
       </c>
       <c r="G196">
         <v>6</v>
       </c>
-    </row>
-    <row r="197" spans="1:8">
+      <c r="I196">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197">
         <v>24</v>
       </c>
       <c r="B197" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C197" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D197" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E197" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F197" t="s">
-        <v>966</v>
+        <v>934</v>
       </c>
       <c r="G197">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="1:8">
+      <c r="I197">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198">
         <v>217</v>
       </c>
       <c r="B198" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C198" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D198" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E198" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F198" t="s">
-        <v>959</v>
+        <v>935</v>
       </c>
       <c r="G198">
         <v>7</v>
       </c>
-    </row>
-    <row r="199" spans="1:8">
+      <c r="I198">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199">
         <v>147</v>
       </c>
       <c r="B199" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C199" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D199" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E199" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F199" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G199">
         <v>10</v>
       </c>
-    </row>
-    <row r="200" spans="1:8">
+      <c r="I199">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200">
         <v>230</v>
       </c>
       <c r="B200" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C200" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D200" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E200" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F200" t="s">
-        <v>987</v>
+        <v>936</v>
       </c>
       <c r="G200">
         <v>6</v>
       </c>
-    </row>
-    <row r="201" spans="1:8">
+      <c r="I200">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201">
         <v>221</v>
       </c>
       <c r="B201" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C201" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D201" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E201" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F201" t="s">
-        <v>988</v>
+        <v>937</v>
       </c>
       <c r="G201">
         <v>8</v>
       </c>
-    </row>
-    <row r="202" spans="1:8">
+      <c r="I201">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202">
         <v>231</v>
       </c>
       <c r="B202" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C202" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D202" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E202" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F202" t="s">
-        <v>988</v>
+        <v>937</v>
       </c>
       <c r="G202">
         <v>8</v>
       </c>
-    </row>
-    <row r="203" spans="1:8">
+      <c r="I202">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203">
         <v>148</v>
       </c>
       <c r="B203" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C203" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D203" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E203" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="F203" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G203">
         <v>10</v>
       </c>
-    </row>
-    <row r="204" spans="1:8">
+      <c r="I203">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204">
         <v>166</v>
       </c>
       <c r="B204" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C204" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D204" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E204" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F204" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G204">
         <v>10</v>
       </c>
-    </row>
-    <row r="205" spans="1:8">
+      <c r="I204">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205">
         <v>202</v>
       </c>
       <c r="B205" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C205" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D205" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E205" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F205" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G205">
         <v>10</v>
       </c>
-    </row>
-    <row r="206" spans="1:8">
+      <c r="I205">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206">
         <v>203</v>
       </c>
       <c r="B206" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C206" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D206" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E206" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F206" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G206">
         <v>10</v>
       </c>
-    </row>
-    <row r="207" spans="1:8">
+      <c r="I206">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207">
         <v>196</v>
       </c>
       <c r="B207" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C207" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D207" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E207" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F207" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G207">
         <v>10</v>
       </c>
-    </row>
-    <row r="208" spans="1:8">
+      <c r="I207">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208">
         <v>233</v>
       </c>
       <c r="B208" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C208" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D208" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E208" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F208" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="G208">
         <v>6</v>
       </c>
-    </row>
-    <row r="209" spans="1:7">
+      <c r="I208">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209">
         <v>108</v>
       </c>
       <c r="B209" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C209" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D209" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E209" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F209" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G209">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="1:7">
+      <c r="I209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210">
         <v>128</v>
       </c>
       <c r="B210" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C210" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D210" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E210" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F210" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:7">
+      <c r="I210">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211">
         <v>118</v>
       </c>
       <c r="B211" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C211" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D211" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E211" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F211" t="s">
-        <v>975</v>
+        <v>935</v>
       </c>
       <c r="G211">
         <v>7</v>
       </c>
-    </row>
-    <row r="212" spans="1:7">
+      <c r="I211">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212">
         <v>69</v>
       </c>
       <c r="B212" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C212" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D212" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E212" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F212" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="G212">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" spans="1:7">
+      <c r="I212">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213">
         <v>23</v>
       </c>
       <c r="B213" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C213" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D213" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E213" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F213" t="s">
-        <v>966</v>
+        <v>934</v>
       </c>
       <c r="G213">
         <v>5</v>
       </c>
-    </row>
-    <row r="214" spans="1:7">
+      <c r="I213">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214">
         <v>27</v>
       </c>
       <c r="B214" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C214" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D214" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E214" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F214" t="s">
-        <v>966</v>
+        <v>934</v>
       </c>
       <c r="G214">
         <v>5</v>
       </c>
-    </row>
-    <row r="215" spans="1:7">
+      <c r="I214">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215">
         <v>10</v>
       </c>
       <c r="B215" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C215" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D215" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E215" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F215" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="G215">
         <v>4</v>
       </c>
-    </row>
-    <row r="216" spans="1:7">
+      <c r="I215">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216">
         <v>229</v>
       </c>
       <c r="B216" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C216" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D216" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E216" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F216" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G216">
         <v>2</v>
       </c>
-    </row>
-    <row r="217" spans="1:7">
+      <c r="I216">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217">
         <v>228</v>
       </c>
       <c r="B217" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C217" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D217" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E217" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F217" t="s">
-        <v>989</v>
+        <v>931</v>
       </c>
       <c r="G217">
         <v>2</v>
       </c>
-    </row>
-    <row r="218" spans="1:7">
+      <c r="I217">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218">
         <v>35</v>
       </c>
       <c r="B218" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C218" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D218" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E218" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="F218" t="s">
-        <v>975</v>
+        <v>935</v>
       </c>
       <c r="G218">
         <v>7</v>
       </c>
-    </row>
-    <row r="219" spans="1:7">
+      <c r="I218">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219">
         <v>41</v>
       </c>
       <c r="B219" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C219" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D219" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E219" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F219" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:7">
+      <c r="I219">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220">
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C220" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D220" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E220" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F220" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="G220">
         <v>6</v>
       </c>
-    </row>
-    <row r="221" spans="1:7">
+      <c r="I220">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221">
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C221" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D221" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E221" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F221" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="G221">
         <v>6</v>
       </c>
-    </row>
-    <row r="222" spans="1:7">
+      <c r="I221">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222">
         <v>224</v>
       </c>
       <c r="B222" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C222" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D222" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E222" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F222" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="G222">
         <v>6</v>
       </c>
-    </row>
-    <row r="223" spans="1:7">
+      <c r="I222">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223">
         <v>175</v>
       </c>
       <c r="B223" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C223" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D223" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E223" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F223" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G223">
         <v>10</v>
       </c>
-    </row>
-    <row r="224" spans="1:7">
+      <c r="I223">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224">
         <v>162</v>
       </c>
       <c r="B224" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C224" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D224" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E224" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="F224" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G224">
         <v>10</v>
       </c>
-    </row>
-    <row r="225" spans="1:7">
+      <c r="I224">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225">
         <v>204</v>
       </c>
       <c r="B225" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C225" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D225" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E225" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F225" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G225">
         <v>10</v>
       </c>
-    </row>
-    <row r="226" spans="1:7">
+      <c r="I225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226">
         <v>197</v>
       </c>
       <c r="B226" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C226" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D226" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E226" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F226" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G226">
         <v>10</v>
       </c>
-    </row>
-    <row r="227" spans="1:7">
+      <c r="I226">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227">
         <v>220</v>
       </c>
       <c r="B227" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C227" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D227" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E227" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F227" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="G227">
         <v>7</v>
       </c>
-    </row>
-    <row r="228" spans="1:7">
+      <c r="I227">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228">
         <v>234</v>
       </c>
       <c r="B228" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C228" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D228" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E228" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F228" t="s">
-        <v>987</v>
+        <v>936</v>
       </c>
       <c r="G228">
         <v>6</v>
       </c>
-    </row>
-    <row r="229" spans="1:7">
+      <c r="I228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229">
         <v>235</v>
       </c>
       <c r="B229" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C229" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D229" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E229" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F229" t="s">
-        <v>990</v>
+        <v>936</v>
       </c>
       <c r="G229">
         <v>6</v>
       </c>
-    </row>
-    <row r="230" spans="1:7">
+      <c r="I229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230">
         <v>236</v>
       </c>
       <c r="B230" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C230" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D230" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E230" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="F230" t="s">
-        <v>991</v>
+        <v>936</v>
       </c>
       <c r="G230">
         <v>6</v>
       </c>
-    </row>
-    <row r="231" spans="1:7">
+      <c r="I230">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231">
         <v>237</v>
       </c>
       <c r="B231" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C231" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D231" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E231" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F231" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="G231">
         <v>6</v>
       </c>
-    </row>
-    <row r="232" spans="1:7">
+      <c r="I231">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232">
         <v>238</v>
       </c>
       <c r="B232" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C232" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D232" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E232" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F232" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="G232">
         <v>6</v>
       </c>
-    </row>
-    <row r="233" spans="1:7">
+      <c r="I232">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233">
         <v>239</v>
       </c>
       <c r="B233" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C233" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D233" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E233" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="F233" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="G233">
         <v>6</v>
       </c>
-    </row>
-    <row r="234" spans="1:7">
+      <c r="I233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234">
         <v>240</v>
       </c>
       <c r="B234" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C234" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D234" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E234" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F234" t="s">
-        <v>992</v>
+        <v>936</v>
       </c>
       <c r="G234">
         <v>6</v>
       </c>
-    </row>
-    <row r="235" spans="1:7">
+      <c r="I234">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235">
         <v>241</v>
       </c>
       <c r="B235" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C235" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D235" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E235" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="F235" t="s">
-        <v>993</v>
+        <v>936</v>
       </c>
       <c r="G235">
         <v>6</v>
       </c>
-    </row>
-    <row r="236" spans="1:7">
+      <c r="I235">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236">
         <v>262</v>
       </c>
       <c r="B236" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C236" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D236" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E236" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="F236" t="s">
-        <v>991</v>
+        <v>936</v>
       </c>
       <c r="G236">
         <v>6</v>
       </c>
-    </row>
-    <row r="237" spans="1:7">
+      <c r="I236">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237">
         <v>242</v>
       </c>
       <c r="B237" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C237" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D237" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E237" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F237" t="s">
-        <v>991</v>
+        <v>936</v>
       </c>
       <c r="G237">
         <v>6</v>
       </c>
-    </row>
-    <row r="238" spans="1:7">
+      <c r="I237">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238">
         <v>243</v>
       </c>
       <c r="B238" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C238" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D238" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E238" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="F238" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="G238">
         <v>6</v>
       </c>
-    </row>
-    <row r="239" spans="1:7">
+      <c r="I238">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239">
         <v>244</v>
       </c>
       <c r="B239" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C239" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D239" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E239" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="F239" t="s">
-        <v>991</v>
+        <v>936</v>
       </c>
       <c r="G239">
         <v>6</v>
       </c>
-    </row>
-    <row r="240" spans="1:7">
+      <c r="I239">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240">
         <v>245</v>
       </c>
       <c r="B240" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C240" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D240" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E240" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F240" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="G240">
         <v>6</v>
       </c>
-    </row>
-    <row r="241" spans="1:7">
+      <c r="I240">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241">
         <v>246</v>
       </c>
       <c r="B241" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C241" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D241" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E241" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F241" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="G241">
         <v>6</v>
       </c>
-    </row>
-    <row r="242" spans="1:7">
+      <c r="I241">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242">
         <v>247</v>
       </c>
       <c r="B242" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C242" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D242" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E242" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F242" t="s">
-        <v>994</v>
+        <v>936</v>
       </c>
       <c r="G242">
         <v>6</v>
       </c>
-    </row>
-    <row r="243" spans="1:7">
+      <c r="I242">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243">
         <v>248</v>
       </c>
       <c r="B243" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C243" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D243" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E243" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="F243" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="G243">
         <v>6</v>
       </c>
-    </row>
-    <row r="244" spans="1:7">
+      <c r="I243">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244">
         <v>249</v>
       </c>
       <c r="B244" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C244" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D244" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E244" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="F244" t="s">
-        <v>992</v>
+        <v>936</v>
       </c>
       <c r="G244">
         <v>6</v>
       </c>
-    </row>
-    <row r="245" spans="1:7">
+      <c r="I244">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245">
         <v>250</v>
       </c>
       <c r="B245" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C245" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D245" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E245" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F245" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="G245">
         <v>6</v>
       </c>
-    </row>
-    <row r="246" spans="1:7">
+      <c r="I245">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246">
         <v>251</v>
       </c>
       <c r="B246" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C246" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D246" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E246" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="F246" t="s">
-        <v>991</v>
+        <v>936</v>
       </c>
       <c r="G246">
         <v>6</v>
       </c>
-    </row>
-    <row r="247" spans="1:7">
+      <c r="I246">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="A247">
         <v>252</v>
       </c>
       <c r="B247" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C247" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D247" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E247" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F247" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="G247">
         <v>6</v>
       </c>
-    </row>
-    <row r="248" spans="1:7">
+      <c r="I247">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="A248">
         <v>253</v>
       </c>
       <c r="B248" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C248" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D248" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E248" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F248" t="s">
-        <v>993</v>
+        <v>936</v>
       </c>
       <c r="G248">
         <v>6</v>
       </c>
-    </row>
-    <row r="249" spans="1:7">
+      <c r="I248">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249">
         <v>254</v>
       </c>
       <c r="B249" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C249" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D249" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E249" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F249" t="s">
-        <v>995</v>
+        <v>936</v>
       </c>
       <c r="G249">
         <v>6</v>
       </c>
-    </row>
-    <row r="250" spans="1:7">
+      <c r="I249">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="A250">
         <v>255</v>
       </c>
       <c r="B250" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C250" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D250" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E250" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="F250" t="s">
-        <v>991</v>
+        <v>936</v>
       </c>
       <c r="G250">
         <v>6</v>
       </c>
-    </row>
-    <row r="251" spans="1:7">
+      <c r="I250">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="A251">
         <v>256</v>
       </c>
       <c r="B251" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C251" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D251" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E251" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="F251" t="s">
-        <v>991</v>
+        <v>936</v>
       </c>
       <c r="G251">
         <v>6</v>
       </c>
-    </row>
-    <row r="252" spans="1:7">
+      <c r="I251">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="A252">
         <v>257</v>
       </c>
       <c r="B252" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C252" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D252" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E252" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F252" t="s">
-        <v>991</v>
+        <v>936</v>
       </c>
       <c r="G252">
         <v>6</v>
       </c>
-    </row>
-    <row r="253" spans="1:7">
+      <c r="I252">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="A253">
         <v>258</v>
       </c>
       <c r="B253" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C253" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D253" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E253" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F253" t="s">
-        <v>991</v>
+        <v>936</v>
       </c>
       <c r="G253">
         <v>6</v>
       </c>
-    </row>
-    <row r="254" spans="1:7">
+      <c r="I253">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="A254">
         <v>259</v>
       </c>
       <c r="B254" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C254" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D254" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E254" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F254" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="G254">
         <v>6</v>
       </c>
-    </row>
-    <row r="255" spans="1:7">
+      <c r="I254">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="A255">
         <v>260</v>
       </c>
       <c r="B255" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C255" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D255" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E255" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F255" t="s">
-        <v>993</v>
+        <v>936</v>
       </c>
       <c r="G255">
         <v>6</v>
       </c>
-    </row>
-    <row r="256" spans="1:7">
+      <c r="I255">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="A256">
         <v>261</v>
       </c>
       <c r="B256" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C256" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D256" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E256" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="F256" t="s">
-        <v>996</v>
+        <v>936</v>
       </c>
       <c r="G256">
         <v>6</v>
       </c>
-    </row>
-    <row r="257" spans="1:7">
+      <c r="I256">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="A257">
         <v>263</v>
       </c>
       <c r="B257" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C257" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D257" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E257" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F257" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="G257">
         <v>6</v>
       </c>
-    </row>
-    <row r="258" spans="1:7">
+      <c r="I257">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="A258">
         <v>264</v>
       </c>
       <c r="B258" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C258" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D258" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E258" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F258" t="s">
-        <v>997</v>
+        <v>936</v>
       </c>
       <c r="G258">
         <v>6</v>
       </c>
-    </row>
-    <row r="259" spans="1:7">
+      <c r="I258">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="A259">
         <v>265</v>
       </c>
       <c r="B259" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C259" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D259" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E259" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F259" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="G259">
         <v>6</v>
       </c>
-    </row>
-    <row r="260" spans="1:7">
+      <c r="I259">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="A260">
         <v>146</v>
       </c>
       <c r="B260" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C260" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D260" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E260" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F260" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G260">
         <v>10</v>
+      </c>
+      <c r="I260">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
